--- a/excel/Emergencyprocess_PHBT_splines.xlsx
+++ b/excel/Emergencyprocess_PHBT_splines.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projektit\whole_blood_research\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E960153-2665-4A95-999B-F071BE39F24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2A9BCF-7D51-4349-98BA-F59AB3313E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{03F3FB12-313A-4338-B057-6B74AD45E5AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{03F3FB12-313A-4338-B057-6B74AD45E5AA}"/>
   </bookViews>
   <sheets>
     <sheet name="PHBT_transfused_noLTOWB" sheetId="1" r:id="rId1"/>
-    <sheet name="PHBT_transfused_LTOWB" sheetId="2" r:id="rId2"/>
-    <sheet name="possible_useful_articles" sheetId="3" r:id="rId3"/>
+    <sheet name="yritys" sheetId="5" r:id="rId2"/>
+    <sheet name="PHBT_transfused_LTOWB" sheetId="2" r:id="rId3"/>
+    <sheet name="possible_useful_articles" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
   <si>
     <t>Article</t>
   </si>
@@ -200,6 +201,18 @@
   </si>
   <si>
     <t>Products transfused</t>
+  </si>
+  <si>
+    <t>mortality</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>(at least 3 units of the product)</t>
   </si>
 </sst>
 </file>
@@ -591,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042CC0A0-1190-4B1E-BAE6-A9A83887E41C}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -980,11 +993,662 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB0492F-CAA5-4E98-8C38-3483F1AE953F}">
+  <dimension ref="A1:U43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>7*24</f>
+        <v>168</v>
+      </c>
+      <c r="E3">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f>30*24</f>
+        <v>720</v>
+      </c>
+      <c r="E4">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>720</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>720</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>13.3</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>720</v>
+      </c>
+      <c r="E21">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6</v>
+      </c>
+      <c r="E23" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <v>24</v>
+      </c>
+      <c r="E24" s="7">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7">
+        <v>24</v>
+      </c>
+      <c r="E27" s="7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="7">
+        <v>6</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7">
+        <v>24</v>
+      </c>
+      <c r="E29" s="7">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6</v>
+      </c>
+      <c r="E31" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7">
+        <v>24</v>
+      </c>
+      <c r="E32" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <v>720</v>
+      </c>
+      <c r="E33" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="7">
+        <v>6</v>
+      </c>
+      <c r="E34" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="7">
+        <v>24</v>
+      </c>
+      <c r="E35" s="7">
+        <v>15.2</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7">
+        <v>720</v>
+      </c>
+      <c r="E36" s="7">
+        <v>29.4</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{399B3D6C-13F6-43A8-8B7B-872B11446F5E}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{0F028F8E-4724-41F9-98B0-6586F79E52E1}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{BCCC9D10-90F2-488C-B3C9-A086BF6F7B11}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{2BAE1989-6C46-4DB1-9DDA-2D100E4EBD15}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{E47D32F8-2CA1-4EA3-B94C-7F21442AE074}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{822EE903-5A35-43E1-86A1-0B4D6EE6AC43}"/>
+    <hyperlink ref="B26" r:id="rId7" xr:uid="{6DE98DE6-3C90-482C-8AFD-0BC948F31316}"/>
+    <hyperlink ref="B31" r:id="rId8" xr:uid="{F0E657F7-C1C1-4C4C-9B50-08A8C22F95AB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB16E479-6047-42D0-885D-96D2640FFC84}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1163,7 +1827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2969613-2499-4E13-99E7-DBA0805B3122}">
   <dimension ref="A1:I6"/>
   <sheetViews>

--- a/excel/Emergencyprocess_PHBT_splines.xlsx
+++ b/excel/Emergencyprocess_PHBT_splines.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projektit\whole_blood_research\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2A9BCF-7D51-4349-98BA-F59AB3313E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB8256F-12B9-4DF8-AF34-E16E35BE1CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{03F3FB12-313A-4338-B057-6B74AD45E5AA}"/>
   </bookViews>
   <sheets>
     <sheet name="PHBT_transfused_noLTOWB" sheetId="1" r:id="rId1"/>
-    <sheet name="yritys" sheetId="5" r:id="rId2"/>
-    <sheet name="PHBT_transfused_LTOWB" sheetId="2" r:id="rId3"/>
-    <sheet name="possible_useful_articles" sheetId="3" r:id="rId4"/>
+    <sheet name="all_min" sheetId="5" r:id="rId2"/>
+    <sheet name="all_hours" sheetId="7" r:id="rId3"/>
+    <sheet name="means_min" sheetId="6" r:id="rId4"/>
+    <sheet name="PHBT_transfused_LTOWB" sheetId="2" r:id="rId5"/>
+    <sheet name="possible_useful_articles" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
   <si>
     <t>Article</t>
   </si>
@@ -996,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB0492F-CAA5-4E98-8C38-3483F1AE953F}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1045,7 +1047,8 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <f>24*60</f>
+        <v>1440</v>
       </c>
       <c r="E2">
         <v>16.100000000000001</v>
@@ -1062,8 +1065,8 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <f>7*24</f>
-        <v>168</v>
+        <f>7*24*60</f>
+        <v>10080</v>
       </c>
       <c r="E3">
         <v>21.4</v>
@@ -1075,8 +1078,8 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <f>30*24</f>
-        <v>720</v>
+        <f>30*24*60</f>
+        <v>43200</v>
       </c>
       <c r="E4">
         <v>21.4</v>
@@ -1093,7 +1096,8 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <f>3*60</f>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -1106,7 +1110,8 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>720</v>
+        <f>720*60</f>
+        <v>43200</v>
       </c>
       <c r="E7">
         <v>42</v>
@@ -1119,7 +1124,8 @@
         <v>38</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <f>3*60</f>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>22</v>
@@ -1132,7 +1138,8 @@
         <v>38</v>
       </c>
       <c r="D9">
-        <v>720</v>
+        <f>720*60</f>
+        <v>43200</v>
       </c>
       <c r="E9">
         <v>45</v>
@@ -1166,7 +1173,8 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <f>6*60</f>
+        <v>360</v>
       </c>
       <c r="E11">
         <v>13.3</v>
@@ -1189,7 +1197,8 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <f>24*60</f>
+        <v>1440</v>
       </c>
       <c r="E12">
         <v>16</v>
@@ -1237,7 +1246,8 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <f>60*6</f>
+        <v>360</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1257,7 +1267,8 @@
         <v>9</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <f>60*24</f>
+        <v>1440</v>
       </c>
       <c r="E15">
         <v>26</v>
@@ -1277,7 +1288,8 @@
         <v>39</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <f>6*60</f>
+        <v>360</v>
       </c>
       <c r="E16">
         <v>18</v>
@@ -1295,7 +1307,8 @@
         <v>39</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <f>60*24</f>
+        <v>1440</v>
       </c>
       <c r="E17">
         <v>40</v>
@@ -1312,7 +1325,8 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <f>60*3</f>
+        <v>180</v>
       </c>
       <c r="E19">
         <v>8.4</v>
@@ -1324,7 +1338,8 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <f>60*24</f>
+        <v>1440</v>
       </c>
       <c r="E20">
         <v>12.6</v>
@@ -1335,7 +1350,8 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>720</v>
+        <f>720*60</f>
+        <v>43200</v>
       </c>
       <c r="E21">
         <v>19.3</v>
@@ -1363,7 +1379,8 @@
         <v>31</v>
       </c>
       <c r="D23" s="7">
-        <v>6</v>
+        <f>60*6</f>
+        <v>360</v>
       </c>
       <c r="E23" s="7">
         <v>16.8</v>
@@ -1380,7 +1397,8 @@
         <v>31</v>
       </c>
       <c r="D24" s="7">
-        <v>24</v>
+        <f>60*24</f>
+        <v>1440</v>
       </c>
       <c r="E24" s="7">
         <v>22.4</v>
@@ -1404,7 +1422,8 @@
         <v>31</v>
       </c>
       <c r="D26" s="7">
-        <v>6</v>
+        <f>60*6</f>
+        <v>360</v>
       </c>
       <c r="E26" s="7">
         <v>3</v>
@@ -1417,7 +1436,8 @@
         <v>31</v>
       </c>
       <c r="D27" s="7">
-        <v>24</v>
+        <f>60*24</f>
+        <v>1440</v>
       </c>
       <c r="E27" s="7">
         <v>8.9</v>
@@ -1430,7 +1450,8 @@
         <v>42</v>
       </c>
       <c r="D28" s="7">
-        <v>6</v>
+        <f>60*6</f>
+        <v>360</v>
       </c>
       <c r="E28" s="7">
         <v>3.7</v>
@@ -1443,7 +1464,8 @@
         <v>42</v>
       </c>
       <c r="D29" s="7">
-        <v>24</v>
+        <f>60*24</f>
+        <v>1440</v>
       </c>
       <c r="E29" s="7">
         <v>12.6</v>
@@ -1464,14 +1486,13 @@
         <v>31</v>
       </c>
       <c r="D31" s="7">
-        <v>6</v>
+        <f>60*6</f>
+        <v>360</v>
       </c>
       <c r="E31" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
@@ -1480,14 +1501,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="7">
-        <v>24</v>
+        <f>60*24</f>
+        <v>1440</v>
       </c>
       <c r="E32" s="7">
         <v>14.1</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
@@ -1496,21 +1516,21 @@
         <v>31</v>
       </c>
       <c r="D33" s="7">
-        <v>720</v>
+        <f>60*720</f>
+        <v>43200</v>
       </c>
       <c r="E33" s="7">
         <v>34.799999999999997</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>45</v>
       </c>
       <c r="D34" s="7">
-        <v>6</v>
+        <f>60*6</f>
+        <v>360</v>
       </c>
       <c r="E34" s="7">
         <v>5.4</v>
@@ -1525,7 +1545,8 @@
         <v>45</v>
       </c>
       <c r="D35" s="7">
-        <v>24</v>
+        <f>60*24</f>
+        <v>1440</v>
       </c>
       <c r="E35" s="7">
         <v>15.2</v>
@@ -1540,7 +1561,8 @@
         <v>45</v>
       </c>
       <c r="D36" s="7">
-        <v>720</v>
+        <f>60*720</f>
+        <v>43200</v>
       </c>
       <c r="E36" s="7">
         <v>29.4</v>
@@ -1644,6 +1666,1138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33F11AA-45C6-403C-A2DC-613489C16115}">
+  <dimension ref="A1:U43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>7*24</f>
+        <v>168</v>
+      </c>
+      <c r="E3">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f>30*24</f>
+        <v>720</v>
+      </c>
+      <c r="E4">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>13.3</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="E21">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E23" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E24" s="7">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="7">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E27" s="7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="7">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E29" s="7">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E31" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E32" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="E33" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="7">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E34" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="7">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E35" s="7">
+        <v>15.2</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="E36" s="7">
+        <v>29.4</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5C71D28D-B93C-4122-81A5-686C21AF6859}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{FEBC14FB-7F2E-422A-A390-AC9055FFD6CA}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{E595982C-D073-4468-8582-733625BFEF2E}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{AA3F888B-2623-4B3A-8937-0EEFAB310834}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{50E2BAB5-8920-4E50-929B-C8B911210AD0}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{131FA10E-B632-4FE7-A3D7-388DC25811A8}"/>
+    <hyperlink ref="B26" r:id="rId7" xr:uid="{8E152F77-22AE-4832-B6C2-742BD0C844CD}"/>
+    <hyperlink ref="B31" r:id="rId8" xr:uid="{98D64C0D-D10A-4EE5-B982-B53C46257790}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58C2D8F-ED4B-4B51-8E74-E69014CD6568}">
+  <dimension ref="A1:U43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>360</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1440</v>
+      </c>
+      <c r="C3">
+        <f>(26+16.1)/2</f>
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>10080</v>
+      </c>
+      <c r="C4">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>43200</v>
+      </c>
+      <c r="C5">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>180</v>
+      </c>
+      <c r="C7">
+        <f>8.4</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7">
+        <v>360</v>
+      </c>
+      <c r="C8" s="7">
+        <f>13.3</f>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1440</v>
+      </c>
+      <c r="C9" s="7">
+        <f>(12.6+16)/2</f>
+        <v>14.3</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>43200</v>
+      </c>
+      <c r="C10" s="7">
+        <v>19.3</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>360</v>
+      </c>
+      <c r="C12">
+        <f>8.0667</f>
+        <v>8.0667000000000009</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>1440</v>
+      </c>
+      <c r="C13">
+        <f>15.1333</f>
+        <v>15.1333</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>43200</v>
+      </c>
+      <c r="C14">
+        <f>34.8</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB16E479-6047-42D0-885D-96D2640FFC84}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1827,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2969613-2499-4E13-99E7-DBA0805B3122}">
   <dimension ref="A1:I6"/>
   <sheetViews>

--- a/excel/Emergencyprocess_PHBT_splines.xlsx
+++ b/excel/Emergencyprocess_PHBT_splines.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projektit\whole_blood_research\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB8256F-12B9-4DF8-AF34-E16E35BE1CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A444DC13-C846-473A-808A-659E71A41491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{03F3FB12-313A-4338-B057-6B74AD45E5AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="619" xr2:uid="{03F3FB12-313A-4338-B057-6B74AD45E5AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="PHBT_transfused_noLTOWB" sheetId="1" r:id="rId1"/>
-    <sheet name="all_min" sheetId="5" r:id="rId2"/>
-    <sheet name="all_hours" sheetId="7" r:id="rId3"/>
-    <sheet name="means_min" sheetId="6" r:id="rId4"/>
-    <sheet name="PHBT_transfused_LTOWB" sheetId="2" r:id="rId5"/>
-    <sheet name="possible_useful_articles" sheetId="3" r:id="rId6"/>
+    <sheet name="all_min" sheetId="5" r:id="rId1"/>
+    <sheet name="all_hours" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="PHBT_transfused_noLTOWB" sheetId="1" r:id="rId4"/>
+    <sheet name="means_min" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="PHBT_transfused_LTOWB" sheetId="2" r:id="rId6"/>
+    <sheet name="possible_useful_articles" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="random" sheetId="9" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="73">
   <si>
     <t>Article</t>
   </si>
@@ -214,14 +216,56 @@
     <t>products</t>
   </si>
   <si>
-    <t>(at least 3 units of the product)</t>
+    <t>patients died</t>
+  </si>
+  <si>
+    <t>total patient n</t>
+  </si>
+  <si>
+    <t>ArticleAbbr</t>
+  </si>
+  <si>
+    <t>Cassignol 2020</t>
+  </si>
+  <si>
+    <t>Crombie 2022</t>
+  </si>
+  <si>
+    <t>Henriksen 2016</t>
+  </si>
+  <si>
+    <t>Griggs 2018</t>
+  </si>
+  <si>
+    <t>Holcomb 2018</t>
+  </si>
+  <si>
+    <t>Braverman 2021</t>
+  </si>
+  <si>
+    <t>Seheult 2018</t>
+  </si>
+  <si>
+    <t>Yazer 2021</t>
+  </si>
+  <si>
+    <t>n_tot</t>
+  </si>
+  <si>
+    <t>n_dead</t>
+  </si>
+  <si>
+    <t>n_survived</t>
+  </si>
+  <si>
+    <t>mortality_percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +281,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +313,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -277,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -289,6 +345,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -603,11 +660,3473 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB0492F-CAA5-4E98-8C38-3483F1AE953F}">
+  <dimension ref="A1:U43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f>24*60</f>
+        <v>1440</v>
+      </c>
+      <c r="E2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F2" s="7">
+        <f>E2/100</f>
+        <v>0.161</v>
+      </c>
+      <c r="G2" s="7">
+        <v>56</v>
+      </c>
+      <c r="H2" s="7">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7">
+        <f>G2-H2</f>
+        <v>47</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>7*24*60</f>
+        <v>10080</v>
+      </c>
+      <c r="E3">
+        <v>21.4</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F36" si="0">E3/100</f>
+        <v>0.214</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I36" si="1">G3-H3</f>
+        <v>44</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f>30*24*60</f>
+        <v>43200</v>
+      </c>
+      <c r="E4">
+        <v>21.4</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.214</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f>3*60</f>
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="G6">
+        <v>197</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f>720*60</f>
+        <v>43200</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="G7">
+        <v>204</v>
+      </c>
+      <c r="H7">
+        <v>86</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <f>3*60</f>
+        <v>180</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="G8">
+        <v>208</v>
+      </c>
+      <c r="H8">
+        <v>46</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <f>720*60</f>
+        <v>43200</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G9">
+        <v>219</v>
+      </c>
+      <c r="H9">
+        <v>99</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <f>6*60</f>
+        <v>360</v>
+      </c>
+      <c r="E11">
+        <v>13.3</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G11">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <f>24*60</f>
+        <v>1440</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="G12">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>92</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <f>60*24*28</f>
+        <v>40320</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="G15" s="7">
+        <v>78</v>
+      </c>
+      <c r="H15" s="7">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <f>6*60</f>
+        <v>360</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="G16" s="7">
+        <v>103</v>
+      </c>
+      <c r="H16" s="7">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <f>60*24*28</f>
+        <v>40320</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>76</v>
+      </c>
+      <c r="H17" s="7">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <f>60*3</f>
+        <v>180</v>
+      </c>
+      <c r="E19">
+        <v>16.2</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G19">
+        <v>142</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="G20">
+        <v>142</v>
+      </c>
+      <c r="H20">
+        <v>27</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f>720*60</f>
+        <v>43200</v>
+      </c>
+      <c r="E21">
+        <v>25.4</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.254</v>
+      </c>
+      <c r="G21">
+        <v>142</v>
+      </c>
+      <c r="H21">
+        <v>36</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E23" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G23" s="7">
+        <v>107</v>
+      </c>
+      <c r="H23" s="7">
+        <v>11</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E24" s="7">
+        <v>22.4</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="G24" s="7">
+        <v>107</v>
+      </c>
+      <c r="H24" s="7">
+        <v>18</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="7">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G26">
+        <v>135</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E27" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="G27">
+        <v>135</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="J27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="7">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="G28">
+        <v>135</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E29" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>0.126</v>
+      </c>
+      <c r="G29">
+        <v>135</v>
+      </c>
+      <c r="H29">
+        <v>17</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E31" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="G31">
+        <v>92</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E32" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G32">
+        <v>92</v>
+      </c>
+      <c r="H32">
+        <v>13</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <f>60*720</f>
+        <v>43200</v>
+      </c>
+      <c r="E33" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G33">
+        <v>92</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="7">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E34" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="G34" s="7">
+        <v>92</v>
+      </c>
+      <c r="H34" s="7">
+        <v>5</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="7">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E35" s="7">
+        <v>15.2</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>0.152</v>
+      </c>
+      <c r="G35" s="7">
+        <v>92</v>
+      </c>
+      <c r="H35" s="7">
+        <v>14</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7">
+        <f>60*720</f>
+        <v>43200</v>
+      </c>
+      <c r="E36" s="7">
+        <v>29.4</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G36" s="7">
+        <v>92</v>
+      </c>
+      <c r="H36" s="7">
+        <v>27</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{399B3D6C-13F6-43A8-8B7B-872B11446F5E}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{0F028F8E-4724-41F9-98B0-6586F79E52E1}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{BCCC9D10-90F2-488C-B3C9-A086BF6F7B11}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{2BAE1989-6C46-4DB1-9DDA-2D100E4EBD15}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{E47D32F8-2CA1-4EA3-B94C-7F21442AE074}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{822EE903-5A35-43E1-86A1-0B4D6EE6AC43}"/>
+    <hyperlink ref="B26" r:id="rId7" xr:uid="{6DE98DE6-3C90-482C-8AFD-0BC948F31316}"/>
+    <hyperlink ref="B31" r:id="rId8" xr:uid="{F0E657F7-C1C1-4C4C-9B50-08A8C22F95AB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33F11AA-45C6-403C-A2DC-613489C16115}">
+  <dimension ref="A1:V43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F2" s="7">
+        <f>E2/100</f>
+        <v>0.161</v>
+      </c>
+      <c r="G2" s="7">
+        <v>56</v>
+      </c>
+      <c r="H2" s="7">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7">
+        <f>G2-H2</f>
+        <v>47</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>7*24</f>
+        <v>168</v>
+      </c>
+      <c r="E3">
+        <v>21.4</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F36" si="0">E3/100</f>
+        <v>0.214</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I36" si="1">G3-H3</f>
+        <v>44</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f>30*24</f>
+        <v>720</v>
+      </c>
+      <c r="E4">
+        <v>21.4</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.214</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="G6">
+        <v>197</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="G7">
+        <v>204</v>
+      </c>
+      <c r="H7">
+        <v>86</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="G8">
+        <v>208</v>
+      </c>
+      <c r="H8">
+        <v>46</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G9">
+        <v>219</v>
+      </c>
+      <c r="H9">
+        <v>99</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>13.3</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G11">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="G12">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>92</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <f>24*28</f>
+        <v>672</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="G15" s="7">
+        <v>78</v>
+      </c>
+      <c r="H15" s="7">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="G16" s="7">
+        <v>103</v>
+      </c>
+      <c r="H16" s="7">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <f>24*28</f>
+        <v>672</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>76</v>
+      </c>
+      <c r="H17" s="7">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>16.2</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G19">
+        <v>142</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="G20">
+        <v>142</v>
+      </c>
+      <c r="H20">
+        <v>27</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="E21">
+        <v>25.4</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.254</v>
+      </c>
+      <c r="G21">
+        <v>142</v>
+      </c>
+      <c r="H21">
+        <v>36</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E23" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G23" s="7">
+        <v>107</v>
+      </c>
+      <c r="H23" s="7">
+        <v>11</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E24" s="7">
+        <v>22.4</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="G24" s="7">
+        <v>107</v>
+      </c>
+      <c r="H24" s="7">
+        <v>18</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="7">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G26">
+        <v>135</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E27" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="G27">
+        <v>135</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="J27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="7">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="G28">
+        <v>135</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E29" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>0.126</v>
+      </c>
+      <c r="G29">
+        <v>135</v>
+      </c>
+      <c r="H29">
+        <v>17</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E31" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="G31">
+        <v>92</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E32" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G32">
+        <v>92</v>
+      </c>
+      <c r="H32">
+        <v>13</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="E33" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G33">
+        <v>92</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="7">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E34" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="G34" s="7">
+        <v>92</v>
+      </c>
+      <c r="H34" s="7">
+        <v>5</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="7">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="E35" s="7">
+        <v>15.2</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>0.152</v>
+      </c>
+      <c r="G35" s="7">
+        <v>92</v>
+      </c>
+      <c r="H35" s="7">
+        <v>14</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="E36" s="7">
+        <v>29.4</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G36" s="7">
+        <v>92</v>
+      </c>
+      <c r="H36" s="7">
+        <v>27</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5C71D28D-B93C-4122-81A5-686C21AF6859}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{FEBC14FB-7F2E-422A-A390-AC9055FFD6CA}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{E595982C-D073-4468-8582-733625BFEF2E}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{AA3F888B-2623-4B3A-8937-0EEFAB310834}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{50E2BAB5-8920-4E50-929B-C8B911210AD0}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{131FA10E-B632-4FE7-A3D7-388DC25811A8}"/>
+    <hyperlink ref="B26" r:id="rId7" xr:uid="{8E152F77-22AE-4832-B6C2-742BD0C844CD}"/>
+    <hyperlink ref="B31" r:id="rId8" xr:uid="{98D64C0D-D10A-4EE5-B982-B53C46257790}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851A100C-4D56-4D16-8A8D-7D9BD0DC8AE7}">
+  <dimension ref="A1:T43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f>24*60</f>
+        <v>1440</v>
+      </c>
+      <c r="E2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F2" s="7">
+        <f>E2/100</f>
+        <v>0.161</v>
+      </c>
+      <c r="G2" s="7">
+        <v>56</v>
+      </c>
+      <c r="H2" s="7">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7">
+        <f>G2-H2</f>
+        <v>47</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>7*24*60</f>
+        <v>10080</v>
+      </c>
+      <c r="E3">
+        <v>21.4</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F36" si="0">E3/100</f>
+        <v>0.214</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I36" si="1">G3-H3</f>
+        <v>44</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f>30*24*60</f>
+        <v>43200</v>
+      </c>
+      <c r="E4">
+        <v>21.4</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.214</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f>3*60</f>
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="G6">
+        <v>197</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f>720*60</f>
+        <v>43200</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="G7">
+        <v>204</v>
+      </c>
+      <c r="H7">
+        <v>86</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <f>3*60</f>
+        <v>180</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="G8">
+        <v>208</v>
+      </c>
+      <c r="H8">
+        <v>46</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <f>720*60</f>
+        <v>43200</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G9">
+        <v>219</v>
+      </c>
+      <c r="H9">
+        <v>99</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <f>6*60</f>
+        <v>360</v>
+      </c>
+      <c r="E11">
+        <v>13.3</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G11">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <f>24*60</f>
+        <v>1440</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="G12">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>92</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <f>60*24*28</f>
+        <v>40320</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="G15" s="7">
+        <v>78</v>
+      </c>
+      <c r="H15" s="7">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <f>6*60</f>
+        <v>360</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="G16" s="7">
+        <v>103</v>
+      </c>
+      <c r="H16" s="7">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <f>60*24*28</f>
+        <v>40320</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>76</v>
+      </c>
+      <c r="H17" s="7">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <f>60*3</f>
+        <v>180</v>
+      </c>
+      <c r="E19">
+        <v>16.2</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G19">
+        <v>142</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="G20">
+        <v>142</v>
+      </c>
+      <c r="H20">
+        <v>27</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f>720*60</f>
+        <v>43200</v>
+      </c>
+      <c r="E21">
+        <v>25.4</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.254</v>
+      </c>
+      <c r="G21">
+        <v>142</v>
+      </c>
+      <c r="H21">
+        <v>36</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E23" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G23" s="7">
+        <v>107</v>
+      </c>
+      <c r="H23" s="7">
+        <v>11</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E24" s="7">
+        <v>22.4</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="G24" s="7">
+        <v>107</v>
+      </c>
+      <c r="H24" s="7">
+        <v>18</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="7">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G26">
+        <v>135</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E27" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="G27">
+        <v>135</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="J27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="7">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="G28">
+        <v>135</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E29" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>0.126</v>
+      </c>
+      <c r="G29">
+        <v>135</v>
+      </c>
+      <c r="H29">
+        <v>17</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E31" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="G31">
+        <v>92</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E32" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G32">
+        <v>92</v>
+      </c>
+      <c r="H32">
+        <v>13</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <f>60*720</f>
+        <v>43200</v>
+      </c>
+      <c r="E33" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G33">
+        <v>92</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="7">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="E34" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="G34" s="7">
+        <v>92</v>
+      </c>
+      <c r="H34" s="7">
+        <v>5</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="7">
+        <f>60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E35" s="7">
+        <v>15.2</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>0.152</v>
+      </c>
+      <c r="G35" s="7">
+        <v>92</v>
+      </c>
+      <c r="H35" s="7">
+        <v>14</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7">
+        <f>60*720</f>
+        <v>43200</v>
+      </c>
+      <c r="E36" s="7">
+        <v>29.4</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G36" s="7">
+        <v>92</v>
+      </c>
+      <c r="H36" s="7">
+        <v>27</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7BC8172E-7342-4C42-B2BB-4F057D1D2DDC}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{F87E290B-B653-42E7-A82C-7B4A677DFDD6}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{95230501-B5F6-4F74-92AF-42F1BF12E8A0}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{892AAE6A-3727-43D4-9D4E-182E224122C2}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{0DA19C07-CBE5-48DB-9021-B2C1EBD67F82}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{E020E487-B2D9-4F38-8864-A4CC13FA216D}"/>
+    <hyperlink ref="B26" r:id="rId7" xr:uid="{C662C2E6-C6D1-45DF-9E8C-FFF9975A412C}"/>
+    <hyperlink ref="B31" r:id="rId8" xr:uid="{ED23B950-9643-4810-9A99-6907876EAD14}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042CC0A0-1190-4B1E-BAE6-A9A83887E41C}">
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,1360 +4513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB0492F-CAA5-4E98-8C38-3483F1AE953F}">
-  <dimension ref="A1:U43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <f>24*60</f>
-        <v>1440</v>
-      </c>
-      <c r="E2">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <f>7*24*60</f>
-        <v>10080</v>
-      </c>
-      <c r="E3">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <f>30*24*60</f>
-        <v>43200</v>
-      </c>
-      <c r="E4">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <f>3*60</f>
-        <v>180</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <f>720*60</f>
-        <v>43200</v>
-      </c>
-      <c r="E7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8">
-        <f>3*60</f>
-        <v>180</v>
-      </c>
-      <c r="E8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <f>720*60</f>
-        <v>43200</v>
-      </c>
-      <c r="E9">
-        <v>45</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <f>6*60</f>
-        <v>360</v>
-      </c>
-      <c r="E11">
-        <v>13.3</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <f>24*60</f>
-        <v>1440</v>
-      </c>
-      <c r="E12">
-        <v>16</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <f>60*6</f>
-        <v>360</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <f>60*24</f>
-        <v>1440</v>
-      </c>
-      <c r="E15">
-        <v>26</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16">
-        <f>6*60</f>
-        <v>360</v>
-      </c>
-      <c r="E16">
-        <v>18</v>
-      </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17">
-        <f>60*24</f>
-        <v>1440</v>
-      </c>
-      <c r="E17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <f>60*3</f>
-        <v>180</v>
-      </c>
-      <c r="E19">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <f>60*24</f>
-        <v>1440</v>
-      </c>
-      <c r="E20">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <f>720*60</f>
-        <v>43200</v>
-      </c>
-      <c r="E21">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="7">
-        <f>60*6</f>
-        <v>360</v>
-      </c>
-      <c r="E23" s="7">
-        <v>16.8</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="7">
-        <f>60*24</f>
-        <v>1440</v>
-      </c>
-      <c r="E24" s="7">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="7">
-        <f>60*6</f>
-        <v>360</v>
-      </c>
-      <c r="E26" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="7">
-        <f>60*24</f>
-        <v>1440</v>
-      </c>
-      <c r="E27" s="7">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="7">
-        <f>60*6</f>
-        <v>360</v>
-      </c>
-      <c r="E28" s="7">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="7">
-        <f>60*24</f>
-        <v>1440</v>
-      </c>
-      <c r="E29" s="7">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="7">
-        <f>60*6</f>
-        <v>360</v>
-      </c>
-      <c r="E31" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="7">
-        <f>60*24</f>
-        <v>1440</v>
-      </c>
-      <c r="E32" s="7">
-        <v>14.1</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="7">
-        <f>60*720</f>
-        <v>43200</v>
-      </c>
-      <c r="E33" s="7">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="7">
-        <f>60*6</f>
-        <v>360</v>
-      </c>
-      <c r="E34" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="7">
-        <f>60*24</f>
-        <v>1440</v>
-      </c>
-      <c r="E35" s="7">
-        <v>15.2</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="7">
-        <f>60*720</f>
-        <v>43200</v>
-      </c>
-      <c r="E36" s="7">
-        <v>29.4</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{399B3D6C-13F6-43A8-8B7B-872B11446F5E}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{0F028F8E-4724-41F9-98B0-6586F79E52E1}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{BCCC9D10-90F2-488C-B3C9-A086BF6F7B11}"/>
-    <hyperlink ref="B14" r:id="rId4" xr:uid="{2BAE1989-6C46-4DB1-9DDA-2D100E4EBD15}"/>
-    <hyperlink ref="B19" r:id="rId5" xr:uid="{E47D32F8-2CA1-4EA3-B94C-7F21442AE074}"/>
-    <hyperlink ref="B23" r:id="rId6" xr:uid="{822EE903-5A35-43E1-86A1-0B4D6EE6AC43}"/>
-    <hyperlink ref="B26" r:id="rId7" xr:uid="{6DE98DE6-3C90-482C-8AFD-0BC948F31316}"/>
-    <hyperlink ref="B31" r:id="rId8" xr:uid="{F0E657F7-C1C1-4C4C-9B50-08A8C22F95AB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33F11AA-45C6-403C-A2DC-613489C16115}">
-  <dimension ref="A1:U43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <f>7*24</f>
-        <v>168</v>
-      </c>
-      <c r="E3">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <f>30*24</f>
-        <v>720</v>
-      </c>
-      <c r="E4">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <f>720</f>
-        <v>720</v>
-      </c>
-      <c r="E7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <f>720</f>
-        <v>720</v>
-      </c>
-      <c r="E9">
-        <v>45</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>13.3</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>16</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>26</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>18</v>
-      </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <f>720</f>
-        <v>720</v>
-      </c>
-      <c r="E21">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="7">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="E23" s="7">
-        <v>16.8</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="7">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="E24" s="7">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="7">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="E26" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="7">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="E27" s="7">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="7">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="E28" s="7">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="7">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="E29" s="7">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="7">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="E31" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="7">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="E32" s="7">
-        <v>14.1</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="7">
-        <f>720</f>
-        <v>720</v>
-      </c>
-      <c r="E33" s="7">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="7">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="E34" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="7">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="E35" s="7">
-        <v>15.2</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="7">
-        <f>720</f>
-        <v>720</v>
-      </c>
-      <c r="E36" s="7">
-        <v>29.4</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5C71D28D-B93C-4122-81A5-686C21AF6859}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{FEBC14FB-7F2E-422A-A390-AC9055FFD6CA}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{E595982C-D073-4468-8582-733625BFEF2E}"/>
-    <hyperlink ref="B14" r:id="rId4" xr:uid="{AA3F888B-2623-4B3A-8937-0EEFAB310834}"/>
-    <hyperlink ref="B19" r:id="rId5" xr:uid="{50E2BAB5-8920-4E50-929B-C8B911210AD0}"/>
-    <hyperlink ref="B23" r:id="rId6" xr:uid="{131FA10E-B632-4FE7-A3D7-388DC25811A8}"/>
-    <hyperlink ref="B26" r:id="rId7" xr:uid="{8E152F77-22AE-4832-B6C2-742BD0C844CD}"/>
-    <hyperlink ref="B31" r:id="rId8" xr:uid="{98D64C0D-D10A-4EE5-B982-B53C46257790}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58C2D8F-ED4B-4B51-8E74-E69014CD6568}">
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2797,12 +4968,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB16E479-6047-42D0-885D-96D2640FFC84}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2981,7 +5152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2969613-2499-4E13-99E7-DBA0805B3122}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3074,4 +5245,119 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3E1161-120A-4663-AC63-53204AB3AA29}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <f>B2/699</f>
+        <v>3.2904148783977114E-2</v>
+      </c>
+      <c r="E2">
+        <f>56+75+92+142+107+135+92</f>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <f>B2+4+18+4+10+10</f>
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">B3/699</f>
+        <v>9.8712446351931327E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <f>B3+9+2+4+6+8+9</f>
+        <v>107</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.1530758226037196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f>7*24</f>
+        <v>168</v>
+      </c>
+      <c r="B5">
+        <f>B4+3</f>
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.15736766809728184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>672</v>
+      </c>
+      <c r="B6">
+        <f>B5+11</f>
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.17310443490701002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>720</v>
+      </c>
+      <c r="B7">
+        <f>B6+9+18</f>
+        <v>148</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.21173104434907011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>